--- a/Create_db/add_data/Book.xlsx
+++ b/Create_db/add_data/Book.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D96A155F-49CD-42AD-8ADF-907E79B312DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\inhibitiontasks\Create_db\add_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E474A26C-5D57-4AA0-8E26-B1FC24D5EDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8270" yWindow="21490" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publication_table" sheetId="1" r:id="rId1"/>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="365">
   <si>
     <t>study</t>
   </si>
@@ -363,9 +368,6 @@
     <t>Adults aged 18 - 48</t>
   </si>
   <si>
-    <t>Students (US and Canada)</t>
-  </si>
-  <si>
     <t>study_within_pub</t>
   </si>
   <si>
@@ -1063,6 +1065,75 @@
   </si>
   <si>
     <t>von Bastian simon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ohio  State University </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ithaca College </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova Southeastern </t>
+  </si>
+  <si>
+    <t>Virginia? 17</t>
+  </si>
+  <si>
+    <t>Penn State Abington</t>
+  </si>
+  <si>
+    <t>Michigan State University</t>
+  </si>
+  <si>
+    <t>San Diego State University</t>
+  </si>
+  <si>
+    <t>Carleton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montana </t>
+  </si>
+  <si>
+    <t>University of Florida</t>
+  </si>
+  <si>
+    <t>Univeristy of Southern Missisipi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miami University </t>
+  </si>
+  <si>
+    <t>University of Toronto</t>
+  </si>
+  <si>
+    <t>University students (Canada)</t>
+  </si>
+  <si>
+    <t>Pacific Lutheran</t>
+  </si>
+  <si>
+    <t>UC Davis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mturk sample </t>
+  </si>
+  <si>
+    <t>Virginia Commonwealth</t>
+  </si>
+  <si>
+    <t>Bradley University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA riverside </t>
+  </si>
+  <si>
+    <t>Univeristy of Virginia</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1117,6 +1188,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1145,7 +1223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1157,13 +1235,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1179,7 +1256,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1478,17 +1555,17 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
+    <col min="9" max="9" width="21.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1517,7 +1594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1543,7 +1620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1569,7 +1646,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1595,7 +1672,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1621,7 +1698,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1645,7 +1722,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1671,7 +1748,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1697,7 +1774,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1723,7 +1800,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -1766,21 +1843,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56954744-AC6A-40FE-AAFF-6494252F15D0}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="233.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="233.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1794,7 +1871,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -1808,7 +1885,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -1822,7 +1899,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -1836,7 +1913,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -1850,7 +1927,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -1864,7 +1941,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1878,7 +1955,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -1892,7 +1969,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -1906,7 +1983,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -1920,7 +1997,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1934,7 +2011,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1948,7 +2025,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -1962,9 +2039,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>242</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1973,6 +2050,286 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>260</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>262</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>264</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>266</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>270</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>272</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>274</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>278</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>280</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>282</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1983,23 +2340,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CF0719-54A4-4A0C-BDDA-03EA16BD7F02}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B35" sqref="B15:B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.54296875" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>91</v>
       </c>
@@ -2022,7 +2379,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2039,7 +2396,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2056,7 +2413,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2080,7 +2437,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2104,7 +2461,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2128,7 +2485,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2152,7 +2509,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2176,7 +2533,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2193,7 +2550,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2210,7 +2567,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2227,7 +2584,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2251,7 +2608,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2274,7 +2631,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2295,25 +2652,572 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>242</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="D15">
+        <v>18.690000000000001</v>
+      </c>
       <c r="E15">
-        <v>0.69799999999999995</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="F15">
-        <v>3397</v>
+        <v>163</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="I15" t="s">
+        <v>342</v>
+      </c>
+      <c r="K15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>19.05</v>
+      </c>
+      <c r="E16">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="F16">
+        <v>288</v>
+      </c>
+      <c r="G16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" t="s">
+        <v>343</v>
+      </c>
+      <c r="K16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="E17">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="F17">
+        <v>138</v>
+      </c>
+      <c r="G17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" t="s">
+        <v>351</v>
+      </c>
+      <c r="K17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>18.68</v>
+      </c>
+      <c r="E18">
+        <v>0.624</v>
+      </c>
+      <c r="F18">
+        <v>196</v>
+      </c>
+      <c r="G18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" t="s">
+        <v>364</v>
+      </c>
+      <c r="K18">
+        <v>17</v>
+      </c>
+      <c r="O18" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>20.88</v>
+      </c>
+      <c r="E19">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="F19">
+        <v>93</v>
+      </c>
+      <c r="G19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" t="s">
+        <v>352</v>
+      </c>
+      <c r="K19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>20.47</v>
+      </c>
+      <c r="E20">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="F20">
+        <v>117</v>
+      </c>
+      <c r="G20" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" t="s">
+        <v>346</v>
+      </c>
+      <c r="K20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>19.41</v>
+      </c>
+      <c r="E21">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="F21">
+        <v>127</v>
+      </c>
+      <c r="G21" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" t="s">
+        <v>347</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>20.47</v>
+      </c>
+      <c r="E22">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="F22">
+        <v>145</v>
+      </c>
+      <c r="G22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" t="s">
+        <v>348</v>
+      </c>
+      <c r="K22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>19.329999999999998</v>
+      </c>
+      <c r="E23">
+        <v>0.78</v>
+      </c>
+      <c r="F23">
+        <v>132</v>
+      </c>
+      <c r="G23" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" t="s">
+        <v>344</v>
+      </c>
+      <c r="K23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>262</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>19.45</v>
+      </c>
+      <c r="E24">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="F24">
+        <v>82</v>
+      </c>
+      <c r="G24" t="s">
+        <v>355</v>
+      </c>
+      <c r="I24" t="s">
+        <v>354</v>
+      </c>
+      <c r="K24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>18.79</v>
+      </c>
+      <c r="E25">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="F25">
+        <v>101</v>
+      </c>
+      <c r="G25" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" t="s">
+        <v>353</v>
+      </c>
+      <c r="K25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>18.75</v>
+      </c>
+      <c r="E26">
+        <v>0.78</v>
+      </c>
+      <c r="F26">
+        <v>119</v>
+      </c>
+      <c r="G26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" t="s">
+        <v>360</v>
+      </c>
+      <c r="K26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>268</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>18.86</v>
+      </c>
+      <c r="E27">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="F27">
+        <v>101</v>
+      </c>
+      <c r="G27" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" t="s">
+        <v>356</v>
+      </c>
+      <c r="K27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>270</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="E28">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="F28">
+        <v>120</v>
+      </c>
+      <c r="G28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" t="s">
+        <v>357</v>
+      </c>
+      <c r="K28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>35.11</v>
+      </c>
+      <c r="E29">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="F29">
+        <v>621</v>
+      </c>
+      <c r="G29" t="s">
+        <v>358</v>
+      </c>
+      <c r="K29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>274</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="E30">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="F30">
+        <v>97</v>
+      </c>
+      <c r="G30" t="s">
+        <v>98</v>
+      </c>
+      <c r="I30" t="s">
+        <v>359</v>
+      </c>
+      <c r="K30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>276</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>18.73</v>
+      </c>
+      <c r="E31">
+        <v>0.627</v>
+      </c>
+      <c r="F31">
+        <v>181</v>
+      </c>
+      <c r="G31" t="s">
+        <v>98</v>
+      </c>
+      <c r="I31" t="s">
+        <v>361</v>
+      </c>
+      <c r="K31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>278</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>18.75</v>
+      </c>
+      <c r="E32">
+        <v>0.81</v>
+      </c>
+      <c r="F32">
+        <v>84</v>
+      </c>
+      <c r="G32" t="s">
+        <v>98</v>
+      </c>
+      <c r="I32" t="s">
+        <v>362</v>
+      </c>
+      <c r="K32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>280</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>20.07</v>
+      </c>
+      <c r="E33">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="F33">
+        <v>51</v>
+      </c>
+      <c r="G33" t="s">
+        <v>355</v>
+      </c>
+      <c r="I33" t="s">
+        <v>349</v>
+      </c>
+      <c r="K33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>282</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>19.66</v>
+      </c>
+      <c r="E34">
+        <v>65.3</v>
+      </c>
+      <c r="F34">
+        <v>252</v>
+      </c>
+      <c r="G34" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>284</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>19.7</v>
+      </c>
+      <c r="E35">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="F35">
+        <v>129</v>
+      </c>
+      <c r="G35" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="S42" s="10"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="S43" s="10"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="P44" s="10"/>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="P46" s="10"/>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="P48" s="10"/>
+    </row>
+    <row r="49" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P49" s="10"/>
+    </row>
+    <row r="51" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P51" s="10"/>
+    </row>
+    <row r="52" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P52" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2324,381 +3228,381 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE889DDA-04E7-4061-88E6-E2249FD9EC36}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
-    <col min="4" max="4" width="236.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.1796875" customWidth="1"/>
+    <col min="4" max="4" width="236.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>114</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>115</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>117</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>118</v>
       </c>
-      <c r="D3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
         <v>120</v>
       </c>
-      <c r="C4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" t="s">
         <v>122</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" t="s">
         <v>118</v>
       </c>
-      <c r="D5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" t="s">
         <v>131</v>
       </c>
-      <c r="C9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="6" customFormat="1">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="6" customFormat="1">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>135</v>
       </c>
-      <c r="C11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="6" customFormat="1">
+    </row>
+    <row r="12" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" t="s">
         <v>118</v>
       </c>
-      <c r="D12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="6" customFormat="1">
+    </row>
+    <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
         <v>138</v>
       </c>
-      <c r="C13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
         <v>139</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
         <v>118</v>
       </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
         <v>144</v>
       </c>
-      <c r="C17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" t="s">
         <v>145</v>
       </c>
-      <c r="C18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" t="s">
         <v>147</v>
       </c>
-      <c r="C19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" t="s">
         <v>118</v>
       </c>
-      <c r="D20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" t="s">
         <v>118</v>
       </c>
-      <c r="D23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>3</v>
       </c>
       <c r="B25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
         <v>154</v>
       </c>
-      <c r="C25" t="s">
-        <v>132</v>
-      </c>
-      <c r="D25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" t="s">
         <v>155</v>
       </c>
-      <c r="C26" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2706,52 +3610,52 @@
         <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" t="s">
         <v>158</v>
       </c>
-      <c r="C28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" t="s">
         <v>160</v>
       </c>
-      <c r="C29" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="30" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>1</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" s="6" customFormat="1">
-      <c r="A30" s="6">
-        <v>1</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>162</v>
-      </c>
       <c r="C30" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2759,10 +3663,10 @@
         <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2774,61 +3678,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47899529-D1A8-430F-A7D5-5D9280DFB08C}">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1">
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -2846,24 +3750,24 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2" t="s">
         <v>175</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" t="s">
         <v>177</v>
       </c>
-      <c r="K2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -2881,24 +3785,24 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I3" t="s">
         <v>175</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="K3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -2916,24 +3820,24 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I4" t="s">
         <v>175</v>
       </c>
-      <c r="I4" t="s">
-        <v>176</v>
-      </c>
       <c r="J4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K4" t="s">
         <v>180</v>
       </c>
-      <c r="K4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -2951,24 +3855,24 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I5" t="s">
         <v>175</v>
       </c>
-      <c r="I5" t="s">
-        <v>176</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>183</v>
       </c>
       <c r="C6" t="s">
         <v>103</v>
@@ -2986,24 +3890,24 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I6" t="s">
+        <v>183</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" t="s">
         <v>185</v>
       </c>
-      <c r="K6" t="s">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>187</v>
       </c>
       <c r="C7" t="s">
         <v>103</v>
@@ -3021,24 +3925,24 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J7" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" t="s">
         <v>188</v>
       </c>
-      <c r="K7" t="s">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>190</v>
       </c>
       <c r="C8" t="s">
         <v>103</v>
@@ -3056,24 +3960,24 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" t="s">
         <v>191</v>
       </c>
-      <c r="K8" t="s">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>193</v>
       </c>
       <c r="C9" t="s">
         <v>103</v>
@@ -3091,24 +3995,24 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K9" t="s">
         <v>194</v>
       </c>
-      <c r="K9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" s="6" customFormat="1">
+    </row>
+    <row r="10" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
         <v>103</v>
@@ -3129,13 +4033,13 @@
         <v>103</v>
       </c>
       <c r="I10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J10" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" t="s">
         <v>196</v>
-      </c>
-      <c r="K10" t="s">
-        <v>197</v>
       </c>
       <c r="L10"/>
       <c r="M10"/>
@@ -3149,12 +4053,12 @@
       <c r="U10"/>
       <c r="V10"/>
     </row>
-    <row r="11" spans="1:22" s="6" customFormat="1">
+    <row r="11" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
         <v>103</v>
@@ -3175,13 +4079,13 @@
         <v>103</v>
       </c>
       <c r="I11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J11" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="K11" t="s">
         <v>198</v>
-      </c>
-      <c r="K11" t="s">
-        <v>199</v>
       </c>
       <c r="L11"/>
       <c r="M11"/>
@@ -3195,12 +4099,12 @@
       <c r="U11"/>
       <c r="V11"/>
     </row>
-    <row r="12" spans="1:22" s="6" customFormat="1">
+    <row r="12" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
         <v>103</v>
@@ -3221,13 +4125,13 @@
         <v>103</v>
       </c>
       <c r="I12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J12" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="K12" t="s">
         <v>200</v>
-      </c>
-      <c r="K12" t="s">
-        <v>201</v>
       </c>
       <c r="L12"/>
       <c r="M12"/>
@@ -3241,12 +4145,12 @@
       <c r="U12"/>
       <c r="V12"/>
     </row>
-    <row r="13" spans="1:22" s="6" customFormat="1">
+    <row r="13" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
         <v>103</v>
@@ -3267,13 +4171,13 @@
         <v>103</v>
       </c>
       <c r="I13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J13" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" t="s">
         <v>202</v>
-      </c>
-      <c r="K13" t="s">
-        <v>203</v>
       </c>
       <c r="L13"/>
       <c r="M13"/>
@@ -3287,15 +4191,15 @@
       <c r="U13"/>
       <c r="V13"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D14">
         <v>121</v>
@@ -3313,24 +4217,24 @@
         <v>103</v>
       </c>
       <c r="I14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J14" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="K14" t="s">
         <v>205</v>
       </c>
-      <c r="K14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D15">
         <v>121</v>
@@ -3345,27 +4249,27 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
+        <v>174</v>
+      </c>
+      <c r="I15" t="s">
         <v>175</v>
       </c>
-      <c r="I15" t="s">
-        <v>176</v>
-      </c>
       <c r="J15" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K15" t="s">
         <v>207</v>
       </c>
-      <c r="K15" t="s">
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>209</v>
-      </c>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D16">
         <v>121</v>
@@ -3383,24 +4287,24 @@
         <v>103</v>
       </c>
       <c r="I16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J16" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K16" t="s">
         <v>210</v>
       </c>
-      <c r="K16" t="s">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" t="s">
-        <v>212</v>
       </c>
       <c r="D17">
         <v>221</v>
@@ -3415,27 +4319,27 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
+        <v>212</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="I17" t="s">
-        <v>176</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" t="s">
         <v>214</v>
       </c>
-      <c r="K17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D18">
         <v>221</v>
@@ -3450,27 +4354,27 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
+        <v>212</v>
+      </c>
+      <c r="I18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="I18" t="s">
-        <v>176</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="K18" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D19">
         <v>221</v>
@@ -3485,27 +4389,27 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
+        <v>212</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="I19" t="s">
-        <v>176</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="K19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D20">
         <v>222</v>
@@ -3520,27 +4424,27 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
+        <v>217</v>
+      </c>
+      <c r="I20" t="s">
+        <v>175</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="I20" t="s">
-        <v>176</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" t="s">
         <v>219</v>
       </c>
-      <c r="K20" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D21">
         <v>222</v>
@@ -3555,27 +4459,27 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J21" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="K21" t="s">
         <v>221</v>
       </c>
-      <c r="K21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D22">
         <v>222</v>
@@ -3590,27 +4494,27 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J22" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" t="s">
         <v>223</v>
       </c>
-      <c r="K22" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D23">
         <v>222</v>
@@ -3625,27 +4529,27 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J23" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" t="s">
         <v>225</v>
       </c>
-      <c r="K23" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D24">
         <v>221</v>
@@ -3660,27 +4564,27 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J24" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K24" t="s">
         <v>227</v>
       </c>
-      <c r="K24" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D25">
         <v>224</v>
@@ -3695,54 +4599,54 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J25" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="K25" t="s">
         <v>229</v>
       </c>
-      <c r="K25" t="s">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>231</v>
-      </c>
-      <c r="C26" t="s">
-        <v>232</v>
       </c>
       <c r="D26">
         <v>179</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="9">
         <v>6</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <v>480</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" t="s">
+        <v>232</v>
+      </c>
+      <c r="I26" t="s">
+        <v>175</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="I26" t="s">
-        <v>176</v>
-      </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" t="s">
         <v>234</v>
       </c>
-      <c r="K26" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3765,24 +4669,24 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I27" t="s">
+        <v>235</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" t="s">
         <v>237</v>
       </c>
-      <c r="K27" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
         <v>103</v>
@@ -3803,21 +4707,21 @@
         <v>103</v>
       </c>
       <c r="I28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J28" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="K28" t="s">
         <v>239</v>
       </c>
-      <c r="K28" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C29" t="s">
         <v>103</v>
@@ -3838,21 +4742,21 @@
         <v>103</v>
       </c>
       <c r="I29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J29" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="K29" t="s">
         <v>241</v>
       </c>
-      <c r="K29" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -3864,15 +4768,15 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C31" t="s">
         <v>243</v>
-      </c>
-      <c r="C31" t="s">
-        <v>244</v>
       </c>
       <c r="D31">
         <v>163</v>
@@ -3890,24 +4794,24 @@
         <v>103</v>
       </c>
       <c r="I31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J31" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="K31" t="s">
         <v>245</v>
       </c>
-      <c r="K31" t="s">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>247</v>
-      </c>
       <c r="C32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D32">
         <v>288</v>
@@ -3925,24 +4829,24 @@
         <v>103</v>
       </c>
       <c r="I32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>249</v>
-      </c>
       <c r="C33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D33">
         <v>138</v>
@@ -3960,24 +4864,24 @@
         <v>103</v>
       </c>
       <c r="I33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>251</v>
-      </c>
       <c r="C34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D34">
         <v>196</v>
@@ -3995,24 +4899,24 @@
         <v>103</v>
       </c>
       <c r="I34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>253</v>
-      </c>
       <c r="C35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D35">
         <v>93</v>
@@ -4030,24 +4934,24 @@
         <v>103</v>
       </c>
       <c r="I35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>255</v>
-      </c>
       <c r="C36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D36">
         <v>177</v>
@@ -4065,24 +4969,24 @@
         <v>103</v>
       </c>
       <c r="I36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K36" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>257</v>
-      </c>
       <c r="C37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D37">
         <v>127</v>
@@ -4100,24 +5004,24 @@
         <v>103</v>
       </c>
       <c r="I37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K37" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>259</v>
-      </c>
       <c r="C38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D38">
         <v>145</v>
@@ -4135,24 +5039,24 @@
         <v>103</v>
       </c>
       <c r="I38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K38" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>261</v>
-      </c>
       <c r="C39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D39">
         <v>132</v>
@@ -4170,24 +5074,24 @@
         <v>103</v>
       </c>
       <c r="I39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K39" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>263</v>
-      </c>
       <c r="C40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D40">
         <v>82</v>
@@ -4205,24 +5109,24 @@
         <v>103</v>
       </c>
       <c r="I40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K40" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>265</v>
-      </c>
       <c r="C41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D41">
         <v>101</v>
@@ -4240,24 +5144,24 @@
         <v>103</v>
       </c>
       <c r="I41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>267</v>
-      </c>
       <c r="C42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D42">
         <v>119</v>
@@ -4275,24 +5179,24 @@
         <v>103</v>
       </c>
       <c r="I42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
-        <v>269</v>
-      </c>
       <c r="C43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D43">
         <v>101</v>
@@ -4310,24 +5214,24 @@
         <v>103</v>
       </c>
       <c r="I43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K43" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
-        <v>271</v>
-      </c>
       <c r="C44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D44">
         <v>120</v>
@@ -4345,24 +5249,24 @@
         <v>103</v>
       </c>
       <c r="I44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K44" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
-        <v>273</v>
-      </c>
       <c r="C45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D45">
         <v>621</v>
@@ -4380,24 +5284,24 @@
         <v>103</v>
       </c>
       <c r="I45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K45" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
-        <v>275</v>
-      </c>
       <c r="C46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D46">
         <v>97</v>
@@ -4415,24 +5319,24 @@
         <v>103</v>
       </c>
       <c r="I46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K46" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
-        <v>277</v>
-      </c>
       <c r="C47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D47">
         <v>181</v>
@@ -4450,24 +5354,24 @@
         <v>103</v>
       </c>
       <c r="I47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K47" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
-        <v>279</v>
-      </c>
       <c r="C48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D48">
         <v>84</v>
@@ -4485,24 +5389,24 @@
         <v>103</v>
       </c>
       <c r="I48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K48" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49" t="s">
-        <v>281</v>
-      </c>
       <c r="C49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D49">
         <v>51</v>
@@ -4520,24 +5424,24 @@
         <v>103</v>
       </c>
       <c r="I49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K49" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
-        <v>283</v>
-      </c>
       <c r="C50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D50">
         <v>252</v>
@@ -4555,24 +5459,24 @@
         <v>103</v>
       </c>
       <c r="I50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K50" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51" t="s">
-        <v>285</v>
-      </c>
       <c r="C51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D51">
         <v>129</v>
@@ -4590,13 +5494,13 @@
         <v>103</v>
       </c>
       <c r="I51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K51" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4659,620 +5563,620 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8BAC05-7681-45EF-A477-0E81CBAC477D}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="31.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
         <v>139</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>140</v>
-      </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
         <v>144</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>145</v>
-      </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" t="s">
+        <v>292</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
         <v>293</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>295</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>297</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
       <c r="D32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
         <v>298</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>299</v>
       </c>
       <c r="C33">
         <v>4</v>
       </c>
       <c r="D33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
         <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>301</v>
       </c>
       <c r="C34">
         <v>5</v>
       </c>
       <c r="D34" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
         <v>302</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>303</v>
       </c>
       <c r="C35">
         <v>6</v>
       </c>
       <c r="D35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
         <v>304</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>305</v>
       </c>
       <c r="C36">
         <v>7</v>
       </c>
       <c r="D36" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
         <v>306</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>307</v>
       </c>
       <c r="C37">
         <v>8</v>
       </c>
       <c r="D37" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>309</v>
       </c>
       <c r="C38">
         <v>9</v>
       </c>
       <c r="D38" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
         <v>310</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>311</v>
       </c>
       <c r="C39">
         <v>10</v>
       </c>
       <c r="D39" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
         <v>312</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>313</v>
       </c>
       <c r="C40">
         <v>11</v>
       </c>
       <c r="D40" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>315</v>
       </c>
       <c r="C41">
         <v>12</v>
       </c>
       <c r="D41" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>317</v>
       </c>
       <c r="C42">
         <v>13</v>
       </c>
       <c r="D42" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
-        <v>319</v>
       </c>
       <c r="C43">
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1</v>
       </c>
@@ -5283,338 +6187,338 @@
         <v>1</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -5624,846 +6528,614 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1346955-E561-4BA2-96D5-97F4D829E993}">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="9"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>326</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>327</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>328</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>329</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
         <v>330</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
         <v>331</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
         <v>332</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
         <v>333</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
         <v>334</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
         <v>335</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
         <v>336</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>337</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>338</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>339</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>340</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
         <v>341</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>342</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>153</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>154</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>293</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>295</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>297</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="1:5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>301</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>303</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>305</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>307</v>
-      </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>309</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>311</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>313</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>315</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-    </row>
-    <row r="46" spans="1:5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>317</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-    </row>
-    <row r="47" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>319</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="1:5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>158</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-    </row>
-    <row r="50" spans="1:5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-    </row>
-    <row r="51" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-    </row>
-    <row r="52" spans="1:5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>243</v>
-      </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-    </row>
-    <row r="53" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>247</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-    </row>
-    <row r="54" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>249</v>
-      </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-    </row>
-    <row r="55" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>251</v>
-      </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-    </row>
-    <row r="56" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>253</v>
-      </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-    </row>
-    <row r="57" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>255</v>
-      </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-    </row>
-    <row r="58" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>257</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-    </row>
-    <row r="59" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>259</v>
-      </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-    </row>
-    <row r="60" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>261</v>
-      </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-    </row>
-    <row r="61" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>263</v>
-      </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-    </row>
-    <row r="62" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>265</v>
-      </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-    </row>
-    <row r="63" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>267</v>
-      </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-    </row>
-    <row r="64" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>269</v>
-      </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-    </row>
-    <row r="65" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>271</v>
-      </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-    </row>
-    <row r="66" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>273</v>
-      </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-    </row>
-    <row r="67" spans="1:5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>275</v>
-      </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-    </row>
-    <row r="68" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>277</v>
-      </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-    </row>
-    <row r="69" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>279</v>
-      </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-    </row>
-    <row r="70" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>281</v>
-      </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-    </row>
-    <row r="71" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>283</v>
-      </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-    </row>
-    <row r="72" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>285</v>
-      </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
+        <v>284</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Create_db/add_data/Book.xlsx
+++ b/Create_db/add_data/Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\inhibitiontasks\Create_db\add_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E474A26C-5D57-4AA0-8E26-B1FC24D5EDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B64F6F1-8C1C-4A05-91BF-23303DF81686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8270" yWindow="21490" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publication_table" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="364">
   <si>
     <t>study</t>
   </si>
@@ -1074,9 +1074,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nova Southeastern </t>
-  </si>
-  <si>
-    <t>Virginia? 17</t>
   </si>
   <si>
     <t>Penn State Abington</t>
@@ -1554,7 +1551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -1845,8 +1842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56954744-AC6A-40FE-AAFF-6494252F15D0}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2342,8 +2339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CF0719-54A4-4A0C-BDDA-03EA16BD7F02}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B35" sqref="B15:B35"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2707,7 +2704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>248</v>
       </c>
@@ -2727,13 +2724,13 @@
         <v>98</v>
       </c>
       <c r="I17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>250</v>
       </c>
@@ -2753,16 +2750,13 @@
         <v>98</v>
       </c>
       <c r="I18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K18">
         <v>17</v>
       </c>
-      <c r="O18" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>252</v>
       </c>
@@ -2782,13 +2776,13 @@
         <v>98</v>
       </c>
       <c r="I19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>254</v>
       </c>
@@ -2808,13 +2802,13 @@
         <v>98</v>
       </c>
       <c r="I20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>256</v>
       </c>
@@ -2834,13 +2828,13 @@
         <v>98</v>
       </c>
       <c r="I21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>258</v>
       </c>
@@ -2860,13 +2854,13 @@
         <v>98</v>
       </c>
       <c r="I22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>260</v>
       </c>
@@ -2892,7 +2886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>262</v>
       </c>
@@ -2909,16 +2903,16 @@
         <v>82</v>
       </c>
       <c r="G24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>264</v>
       </c>
@@ -2938,13 +2932,13 @@
         <v>98</v>
       </c>
       <c r="I25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>266</v>
       </c>
@@ -2964,13 +2958,13 @@
         <v>98</v>
       </c>
       <c r="I26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>268</v>
       </c>
@@ -2990,13 +2984,13 @@
         <v>98</v>
       </c>
       <c r="I27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>270</v>
       </c>
@@ -3016,13 +3010,13 @@
         <v>98</v>
       </c>
       <c r="I28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>272</v>
       </c>
@@ -3039,13 +3033,13 @@
         <v>621</v>
       </c>
       <c r="G29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>274</v>
       </c>
@@ -3065,13 +3059,13 @@
         <v>98</v>
       </c>
       <c r="I30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>276</v>
       </c>
@@ -3091,13 +3085,13 @@
         <v>98</v>
       </c>
       <c r="I31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>278</v>
       </c>
@@ -3117,7 +3111,7 @@
         <v>98</v>
       </c>
       <c r="I32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K32">
         <v>31</v>
@@ -3140,10 +3134,10 @@
         <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K33">
         <v>32</v>
@@ -3169,7 +3163,7 @@
         <v>98</v>
       </c>
       <c r="I34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.35">
@@ -3192,7 +3186,7 @@
         <v>98</v>
       </c>
       <c r="I35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.35">
@@ -3228,8 +3222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE889DDA-04E7-4061-88E6-E2249FD9EC36}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3684,6 +3678,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="7.453125" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" customWidth="1"/>
     <col min="3" max="3" width="11.81640625" customWidth="1"/>
     <col min="4" max="4" width="15.7265625" customWidth="1"/>
@@ -5563,8 +5558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8BAC05-7681-45EF-A477-0E81CBAC477D}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6530,8 +6525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1346955-E561-4BA2-96D5-97F4D829E993}">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
